--- a/src/test/resources/testdata/batch18excel.xlsx
+++ b/src/test/resources/testdata/batch18excel.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>firstName</t>
   </si>
@@ -49,28 +49,10 @@
     <t>C:\Users\sohai\OneDrive\Desktop\batch18image.jpg</t>
   </si>
   <si>
-    <t>carlos0123</t>
+    <t>carlos0127676763</t>
   </si>
   <si>
     <t>Hum@nhrm123</t>
-  </si>
-  <si>
-    <t>hanane</t>
-  </si>
-  <si>
-    <t>solo</t>
-  </si>
-  <si>
-    <t>hanane0123</t>
-  </si>
-  <si>
-    <t>milan</t>
-  </si>
-  <si>
-    <t>usman</t>
-  </si>
-  <si>
-    <t>milan0123</t>
   </si>
 </sst>
 </file>
@@ -1232,7 +1214,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="6"/>
@@ -1291,59 +1273,17 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>12</v>
-      </c>
+    <row r="3" spans="6:7">
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>12</v>
-      </c>
+    <row r="4" spans="6:7">
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" display="Hum@nhrm123"/>
-    <hyperlink ref="F3" r:id="rId1" display="Hum@nhrm123"/>
-    <hyperlink ref="G3" r:id="rId1" display="Hum@nhrm123"/>
-    <hyperlink ref="F4" r:id="rId1" display="Hum@nhrm123"/>
-    <hyperlink ref="G4" r:id="rId1" display="Hum@nhrm123"/>
     <hyperlink ref="F2" r:id="rId1" display="Hum@nhrm123"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
